--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221143.096758179</v>
+        <v>2218645.930581314</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673416</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>251.8301946662201</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328576</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1455,7 +1455,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.2131263403182</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1616,7 +1616,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1670,10 +1670,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.8621683961351</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1743,7 +1743,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494236</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C17" t="n">
         <v>271.3226185338224</v>
@@ -1850,7 +1850,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>235.6978389621976</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F17" t="n">
         <v>312.9257725045263</v>
@@ -1859,7 +1859,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501354</v>
+        <v>148.3752332772596</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099076</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T17" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X17" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657065</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475218</v>
+        <v>85.88170694475211</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144272</v>
+        <v>73.29654786144265</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102717</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938406</v>
+        <v>52.48368940938398</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574613</v>
+        <v>51.47077478574606</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184311</v>
+        <v>72.07553502184304</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713567</v>
+        <v>50.8047416771356</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172653002</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425679</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U19" t="n">
         <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X19" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C20" t="n">
         <v>271.3226185338224</v>
@@ -2087,7 +2087,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F20" t="n">
         <v>312.9257725045263</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099073</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T20" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>223.4985695684078</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.0054075459888</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475218</v>
+        <v>85.88170694475211</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144272</v>
+        <v>73.29654786144265</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102717</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938406</v>
+        <v>52.48368940938398</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574613</v>
+        <v>51.47077478574606</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184311</v>
+        <v>72.07553502184304</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713567</v>
+        <v>50.8047416771356</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652995</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425678</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U22" t="n">
         <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X22" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>246.2549806781874</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>275.246336259378</v>
       </c>
       <c r="H23" t="n">
         <v>200.6574911501353</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099072</v>
+        <v>15.23748855099073</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475218</v>
+        <v>85.8817069447522</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144272</v>
+        <v>73.29654786144273</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102725</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938406</v>
+        <v>52.48368940938407</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574613</v>
+        <v>51.47077478574614</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184311</v>
+        <v>72.07553502184312</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713567</v>
+        <v>50.80474167713568</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652981</v>
+        <v>2.402147172652995</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>131.3576466770145</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>222.4736344426717</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>276.2562356111446</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,16 +2849,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>297.5969707338205</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646386</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
@@ -3035,7 +3035,7 @@
         <v>257.75240294372</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952989</v>
+        <v>284.9997313952988</v>
       </c>
       <c r="F32" t="n">
         <v>309.9454070647485</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121292</v>
+        <v>12.25712311121283</v>
       </c>
       <c r="T32" t="n">
         <v>106.9873314626572</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819391</v>
+        <v>154.064533281939</v>
       </c>
       <c r="V32" t="n">
-        <v>230.821619793172</v>
+        <v>230.8216197931719</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404501</v>
+        <v>252.31033004045</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015061</v>
+        <v>272.800462001506</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790907</v>
+        <v>289.3072999790906</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497438</v>
+        <v>82.9013415049743</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166492</v>
+        <v>70.31618242166483</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124944</v>
+        <v>51.68483434124936</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960626</v>
+        <v>49.50332396960617</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596833</v>
+        <v>48.49040934596825</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206531</v>
+        <v>69.09516958206522</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735787</v>
+        <v>47.82437623735778</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447898</v>
+        <v>92.8383866544789</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992063</v>
+        <v>122.6183105992062</v>
       </c>
       <c r="U34" t="n">
         <v>189.2811995286499</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468651</v>
+        <v>155.207004646865</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596281</v>
+        <v>189.592359659628</v>
       </c>
       <c r="X34" t="n">
         <v>128.7790167120742</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751319</v>
+        <v>121.6540146751318</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592144</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3831,7 +3831,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
         <v>89.59687541851115</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441559</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5018,19 +5018,19 @@
         <v>1640.517726580261</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573978</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.701660921584</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.363041271413</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>627.8267694298787</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229487</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
         <v>458.9189605332749</v>
@@ -5109,10 +5109,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998332</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657643</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315251</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328081</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337108</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,31 +5218,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>772.4735532892844</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806479</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.223550921005</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1966.533851893267</v>
+        <v>1743.952710056348</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,25 +5370,25 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328083</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337109</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
@@ -5452,34 +5452,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.964583048797</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004532</v>
+        <v>1406.901332004536</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.534899293928</v>
+        <v>1143.534899293932</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795874</v>
+        <v>852.645912591834</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861264</v>
+        <v>536.5592736983731</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>216.3860894395164</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
@@ -5522,43 +5522,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032411</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.13593731278</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482762</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035338</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661371</v>
+        <v>2546.471715661374</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.905223296437</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216772</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,37 +5607,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.3188191687813</v>
+        <v>427.3188191687808</v>
       </c>
       <c r="C19" t="n">
-        <v>353.281902137021</v>
+        <v>353.2819021370206</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208319</v>
+        <v>298.0645286208315</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345853</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328216</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036871</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769147</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>171.345640474436</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>362.6672652469196</v>
+        <v>237.938467621008</v>
       </c>
       <c r="L19" t="n">
-        <v>611.38787967409</v>
+        <v>486.6590820481786</v>
       </c>
       <c r="M19" t="n">
-        <v>778.8203609732876</v>
+        <v>747.1023338521898</v>
       </c>
       <c r="N19" t="n">
-        <v>1043.139968507948</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O19" t="n">
-        <v>1274.069088230951</v>
+        <v>1242.351061109854</v>
       </c>
       <c r="P19" t="n">
-        <v>1466.030861488523</v>
+        <v>1434.312834367426</v>
       </c>
       <c r="Q19" t="n">
-        <v>1540.244372230781</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592246</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315219</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780893</v>
+        <v>1321.558343780892</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802683</v>
+        <v>1127.354742802682</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929427</v>
+        <v>967.569520492942</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521287</v>
+        <v>773.051616352128</v>
       </c>
       <c r="X19" t="n">
-        <v>639.961331350258</v>
+        <v>639.9613313502573</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028745</v>
+        <v>514.0680181028738</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536555</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.71169349229</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781686</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795884</v>
+        <v>905.4562740795872</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861277</v>
+        <v>589.3696351861263</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032412</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.13593731278</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482763</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.341105035339</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661371</v>
+        <v>2546.471715661374</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296438</v>
+        <v>2320.715584784194</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.47551870453</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.3188191687813</v>
+        <v>427.3188191687808</v>
       </c>
       <c r="C22" t="n">
-        <v>353.281902137021</v>
+        <v>353.2819021370206</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208319</v>
+        <v>298.0645286208315</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345853</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328216</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036871</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769147</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>171.3456404744361</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>269.6564947421064</v>
+        <v>269.6564947421066</v>
       </c>
       <c r="L22" t="n">
-        <v>518.3771091692769</v>
+        <v>518.3771091692772</v>
       </c>
       <c r="M22" t="n">
-        <v>778.820360973288</v>
+        <v>778.8203609732884</v>
       </c>
       <c r="N22" t="n">
-        <v>1011.421941386852</v>
+        <v>1011.421941386851</v>
       </c>
       <c r="O22" t="n">
-        <v>1242.351061109855</v>
+        <v>1242.351061109854</v>
       </c>
       <c r="P22" t="n">
-        <v>1434.312834367427</v>
+        <v>1434.312834367426</v>
       </c>
       <c r="Q22" t="n">
-        <v>1540.244372230781</v>
+        <v>1540.24437223078</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592246</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315219</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780893</v>
+        <v>1321.558343780892</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802683</v>
+        <v>1127.354742802682</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929427</v>
+        <v>967.569520492942</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521287</v>
+        <v>773.051616352128</v>
       </c>
       <c r="X22" t="n">
-        <v>639.961331350258</v>
+        <v>639.9613313502573</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028745</v>
+        <v>514.0680181028738</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1691.845990713186</v>
+        <v>1691.845990713185</v>
       </c>
       <c r="C23" t="n">
-        <v>1417.782739668921</v>
+        <v>1417.78273966892</v>
       </c>
       <c r="D23" t="n">
-        <v>1154.416306958317</v>
+        <v>1154.416306958316</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328752</v>
+        <v>863.5273202562184</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394142</v>
+        <v>547.4406813627575</v>
       </c>
       <c r="G23" t="n">
         <v>269.4140790805574</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J23" t="n">
-        <v>255.6088755444966</v>
+        <v>266.272655055595</v>
       </c>
       <c r="K23" t="n">
-        <v>589.4282492343431</v>
+        <v>600.0920287454414</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.12624199385</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.994367154677</v>
+        <v>1584.658146665775</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724557</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603894</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961073</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q23" t="n">
         <v>3277.470162716755</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.0958266968</v>
+        <v>3321.095826696799</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977168</v>
+        <v>3210.017344977167</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147152</v>
+        <v>3051.386134147151</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699727</v>
+        <v>2815.222512699726</v>
       </c>
       <c r="W23" t="n">
         <v>2557.353123325759</v>
       </c>
       <c r="X23" t="n">
-        <v>2278.786630960826</v>
+        <v>2278.786630960825</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.546564881161</v>
+        <v>1983.54656488116</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E24" t="n">
         <v>459.1365886865626</v>
@@ -6063,7 +6063,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J24" t="n">
         <v>160.4070140760885</v>
@@ -6072,7 +6072,7 @@
         <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M24" t="n">
         <v>1212.645698591417</v>
@@ -6142,28 +6142,28 @@
         <v>69.15615587097922</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J25" t="n">
-        <v>78.55249812291061</v>
+        <v>139.8452415066268</v>
       </c>
       <c r="K25" t="n">
-        <v>269.8741228953942</v>
+        <v>331.1668662791104</v>
       </c>
       <c r="L25" t="n">
-        <v>518.5947373225647</v>
+        <v>486.8767102014676</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0379891265758</v>
+        <v>747.3199620054787</v>
       </c>
       <c r="N25" t="n">
-        <v>1043.357596661237</v>
+        <v>1011.63956954014</v>
       </c>
       <c r="O25" t="n">
-        <v>1274.28671638424</v>
+        <v>1242.568689263142</v>
       </c>
       <c r="P25" t="n">
-        <v>1466.248489641811</v>
+        <v>1434.530462520714</v>
       </c>
       <c r="Q25" t="n">
         <v>1540.462000384068</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1533.618077321136</v>
+        <v>1430.217783284951</v>
       </c>
       <c r="C26" t="n">
-        <v>1212.105193328797</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>901.2891276701203</v>
+        <v>797.8888336339357</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9505080199492</v>
+        <v>797.8888336339357</v>
       </c>
       <c r="F26" t="n">
-        <v>199.4142361784151</v>
+        <v>434.3525617924014</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4142361784151</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547115</v>
+        <v>72.07396936268105</v>
       </c>
       <c r="J26" t="n">
-        <v>255.6088755444966</v>
+        <v>260.9531003217065</v>
       </c>
       <c r="K26" t="n">
-        <v>589.4282492343431</v>
+        <v>594.772474011553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.462462482752</v>
+        <v>1045.806687259962</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.994367154677</v>
+        <v>1579.338591931886</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.773184213459</v>
+        <v>2126.117408990669</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.745655092796</v>
+        <v>2629.089879870005</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.520021449974</v>
+        <v>3023.864246227184</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.806383205656</v>
+        <v>3272.150607982866</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S26" t="n">
-        <v>3336.487229273558</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T26" t="n">
-        <v>3336.487229273558</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U26" t="n">
-        <v>3130.406385495468</v>
+        <v>2909.03723530293</v>
       </c>
       <c r="V26" t="n">
-        <v>2846.79313109997</v>
+        <v>2625.423980907433</v>
       </c>
       <c r="W26" t="n">
-        <v>2541.474108777929</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="X26" t="n">
-        <v>2215.457983464923</v>
+        <v>1994.088833272386</v>
       </c>
       <c r="Y26" t="n">
-        <v>1872.768284437185</v>
+        <v>1769.367990401</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
         <v>459.1365886865626</v>
@@ -6300,7 +6300,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J27" t="n">
         <v>160.4070140760885</v>
@@ -6309,7 +6309,7 @@
         <v>398.6712130564356</v>
       </c>
       <c r="L27" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M27" t="n">
         <v>1212.645698591417</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585819</v>
+        <v>759.6838779585823</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787483</v>
+        <v>638.1973279787487</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144859</v>
+        <v>535.5303215144862</v>
       </c>
       <c r="E28" t="n">
-        <v>435.066860880166</v>
+        <v>435.0668608801664</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303289</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531212</v>
+        <v>215.3733426531215</v>
       </c>
       <c r="H28" t="n">
         <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J28" t="n">
         <v>158.3577622848133</v>
@@ -6388,46 +6388,46 @@
         <v>408.8503304860963</v>
       </c>
       <c r="L28" t="n">
-        <v>771.9155141869991</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997227</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170047</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.439576856112</v>
+        <v>2175.439576856113</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.555258261033</v>
+        <v>2299.555258261034</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407482</v>
+        <v>893.8827098407488</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1595.862181524096</v>
+        <v>1680.351750728111</v>
       </c>
       <c r="C29" t="n">
-        <v>1274.349297531758</v>
+        <v>1358.838866735772</v>
       </c>
       <c r="D29" t="n">
-        <v>963.5332318730807</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="E29" t="n">
-        <v>963.5332318730807</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355609</v>
+        <v>684.4865292355607</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286307</v>
+        <v>316.8637120286305</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444966</v>
+        <v>255.6088755444967</v>
       </c>
       <c r="K29" t="n">
-        <v>600.0920287454419</v>
+        <v>589.4282492343433</v>
       </c>
       <c r="L29" t="n">
-        <v>1051.126241993851</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
         <v>1584.658146665775</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724558</v>
+        <v>2131.436963724557</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603895</v>
+        <v>2634.409434603894</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961073</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q29" t="n">
         <v>3277.470162716755</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S29" t="n">
         <v>3273.646193748726</v>
@@ -6497,16 +6497,16 @@
         <v>2909.037235302931</v>
       </c>
       <c r="V29" t="n">
-        <v>2909.037235302931</v>
+        <v>2625.423980907433</v>
       </c>
       <c r="W29" t="n">
-        <v>2603.71821298089</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="X29" t="n">
-        <v>2277.702087667883</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="Y29" t="n">
-        <v>1935.012388640145</v>
+        <v>2019.501957844159</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343963</v>
+        <v>941.7614826343965</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532693</v>
+        <v>767.3084533532696</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920184</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865628</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134479</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460657</v>
+        <v>176.238930546066</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393355</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760885</v>
+        <v>160.407014076088</v>
       </c>
       <c r="K30" t="n">
-        <v>398.6712130564356</v>
+        <v>398.6712130564351</v>
       </c>
       <c r="L30" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M30" t="n">
         <v>1212.645698591417</v>
@@ -6555,25 +6555,25 @@
         <v>1686.168742145871</v>
       </c>
       <c r="O30" t="n">
-        <v>2097.130021563926</v>
+        <v>2097.130021563927</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.629613040029</v>
+        <v>2407.62961304003</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.271170686629</v>
       </c>
       <c r="R30" t="n">
-        <v>2565.126817279144</v>
+        <v>2565.126817279145</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.688930772624</v>
+        <v>2435.688930772625</v>
       </c>
       <c r="T30" t="n">
         <v>2243.04593045048</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.978083584895</v>
+        <v>2014.978083584896</v>
       </c>
       <c r="V30" t="n">
         <v>1779.825975353153</v>
@@ -6585,7 +6585,7 @@
         <v>1317.737118419418</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.976819654464</v>
+        <v>1109.976819654465</v>
       </c>
     </row>
     <row r="31">
@@ -6616,31 +6616,31 @@
         <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848131</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860971</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869999</v>
+        <v>771.9155141869992</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.491706997227</v>
+        <v>1550.491706997226</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.326691170047</v>
+        <v>1896.326691170046</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.439576856113</v>
+        <v>2175.439576856112</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.555258261034</v>
+        <v>2299.555258261033</v>
       </c>
       <c r="R31" t="n">
         <v>2257.174433966635</v>
@@ -6677,25 +6677,25 @@
         <v>1715.929751842704</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939628</v>
+        <v>1444.876970939629</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370214</v>
+        <v>1184.521008370215</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093062</v>
+        <v>896.6424918093065</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570349</v>
+        <v>583.5663230570353</v>
       </c>
       <c r="G32" t="n">
         <v>266.4036089393676</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444966</v>
@@ -6716,22 +6716,22 @@
         <v>2623.745655092796</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961073</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q32" t="n">
         <v>3277.470162716755</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837989</v>
+        <v>3324.106296837988</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259548</v>
+        <v>3216.038285259547</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570721</v>
+        <v>3060.41754457072</v>
       </c>
       <c r="V32" t="n">
         <v>2827.264393264486</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343961</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532691</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865624</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134474</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460662</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H33" t="n">
-        <v>85.7370361839332</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760888</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K33" t="n">
-        <v>398.6712130564357</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3693733691013</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M33" t="n">
         <v>1212.645698591417</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894228</v>
+        <v>407.0472151894223</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988522</v>
+        <v>336.0207682988517</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238527</v>
+        <v>283.8138649238524</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787959</v>
+        <v>233.8105073787956</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182219</v>
+        <v>184.8302959182217</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302771</v>
+        <v>115.037195330277</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547115</v>
+        <v>67.30218066992479</v>
       </c>
       <c r="J34" t="n">
-        <v>174.5138304131039</v>
+        <v>175.0862664975576</v>
       </c>
       <c r="K34" t="n">
-        <v>368.7860169709676</v>
+        <v>369.3584530554214</v>
       </c>
       <c r="L34" t="n">
-        <v>620.4571931835181</v>
+        <v>621.029629267972</v>
       </c>
       <c r="M34" t="n">
-        <v>879.9168243968013</v>
+        <v>788.4621105671698</v>
       </c>
       <c r="N34" t="n">
-        <v>1147.186993716842</v>
+        <v>1051.225661426648</v>
       </c>
       <c r="O34" t="n">
-        <v>1381.066675225225</v>
+        <v>1285.105342935031</v>
       </c>
       <c r="P34" t="n">
-        <v>1480.017677977984</v>
+        <v>1384.05634568779</v>
       </c>
       <c r="Q34" t="n">
-        <v>1492.938445336525</v>
+        <v>1492.938445336524</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483371</v>
+        <v>1500.85694648337</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347534</v>
+        <v>1407.080798347533</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954396</v>
+        <v>1283.223918954395</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117376</v>
+        <v>1092.030788117375</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488255</v>
+        <v>935.2560359488245</v>
       </c>
       <c r="W34" t="n">
-        <v>743.7486019492011</v>
+        <v>743.7486019492003</v>
       </c>
       <c r="X34" t="n">
-        <v>613.66878708852</v>
+        <v>613.6687870885194</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823263</v>
+        <v>490.7859439823256</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6968,7 +6968,7 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6993,22 +6993,22 @@
         <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
@@ -7090,28 +7090,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954467</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K37" t="n">
-        <v>370.061470288941</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371221</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M37" t="n">
-        <v>886.6195415621437</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N37" t="n">
-        <v>1057.928378591991</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O37" t="n">
-        <v>1292.554600836005</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
-        <v>1391.505603588764</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936508</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046498</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7187,37 +7187,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,43 +7242,43 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7290,7 +7290,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>155.2189959588255</v>
       </c>
       <c r="K40" t="n">
-        <v>273.3535972631171</v>
+        <v>253.5298502264959</v>
       </c>
       <c r="L40" t="n">
-        <v>429.0634411854744</v>
+        <v>505.947567174677</v>
       </c>
       <c r="M40" t="n">
-        <v>693.2037955104961</v>
+        <v>770.0879214996987</v>
       </c>
       <c r="N40" t="n">
-        <v>961.2205055661675</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O40" t="n">
-        <v>1195.846727810181</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7391,58 +7391,58 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495718</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>79.65384678970706</v>
       </c>
       <c r="K43" t="n">
-        <v>273.3535972631171</v>
+        <v>253.529850226496</v>
       </c>
       <c r="L43" t="n">
-        <v>525.7713142112982</v>
+        <v>505.9475671746771</v>
       </c>
       <c r="M43" t="n">
-        <v>789.9116685363199</v>
+        <v>770.0879214996988</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.928378591991</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799384</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577967</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7625,46 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,10 +7673,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7688,10 +7688,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J46" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
         <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>505.9475671746778</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996994</v>
+        <v>791.2306453564041</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.104631555371</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O46" t="n">
         <v>1176.02298077356</v>
@@ -7825,31 +7825,31 @@
         <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094466</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446534</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877944</v>
+        <v>15.25382330877945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>66.46756048619494</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587026</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>139.5455787045698</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413259</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>52.28225787287908</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.28225787287566</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.282257872876</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.28225787287971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24212,13 +24212,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>41.72511615688929</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>41.72511615689029</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24449,16 +24449,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>116.2749810917134</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>116.7891675947893</v>
       </c>
     </row>
     <row r="27">
@@ -24686,10 +24686,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>83.64467351197425</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24737,16 +24737,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>41.6658313036406</v>
       </c>
     </row>
     <row r="30">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776036.0970307224</v>
+        <v>776036.0970307227</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776036.0970307223</v>
+        <v>776036.0970307227</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736309</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655424.1858302916</v>
+        <v>655424.1858302921</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.8079118741</v>
+        <v>611624.8079118745</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.807911874</v>
+        <v>611624.8079118744</v>
       </c>
       <c r="G2" t="n">
-        <v>653504.0817100822</v>
+        <v>653504.0817100826</v>
       </c>
       <c r="H2" t="n">
-        <v>653504.0817100824</v>
+        <v>653504.0817100825</v>
       </c>
       <c r="I2" t="n">
-        <v>654176.3604945566</v>
+        <v>654176.3604945568</v>
       </c>
       <c r="J2" t="n">
+        <v>612297.0866963473</v>
+      </c>
+      <c r="K2" t="n">
         <v>612297.0866963483</v>
       </c>
-      <c r="K2" t="n">
-        <v>612297.0866963472</v>
-      </c>
       <c r="L2" t="n">
-        <v>656833.4158914258</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="O2" t="n">
         <v>656833.4158914268</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655529</v>
+        <v>10420.33926655485</v>
       </c>
       <c r="E3" t="n">
         <v>1151572.83087572</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487409</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018806018</v>
+        <v>723.3987018802342</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157033</v>
+        <v>77544.51094157046</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540876</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747257</v>
+        <v>463375.033574726</v>
       </c>
       <c r="E4" t="n">
+        <v>62485.16516868472</v>
+      </c>
+      <c r="F4" t="n">
         <v>62485.16516868471</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62485.16516868475</v>
       </c>
       <c r="G4" t="n">
         <v>91416.0130675504</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.01306755036</v>
+        <v>91416.01306755042</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942865</v>
+        <v>91906.68112942862</v>
       </c>
       <c r="J4" t="n">
         <v>62975.83323056295</v>
       </c>
       <c r="K4" t="n">
-        <v>62975.83323056297</v>
+        <v>62975.83323056292</v>
       </c>
       <c r="L4" t="n">
-        <v>93788.48670920226</v>
+        <v>93788.48670920231</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657696</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251486</v>
+        <v>33892.84951251485</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.0434786689</v>
+        <v>82370.04347866889</v>
       </c>
       <c r="J5" t="n">
         <v>78420.89071828043</v>
@@ -26503,7 +26503,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154177.5110418996</v>
+        <v>154173.0974640314</v>
       </c>
       <c r="C6" t="n">
-        <v>154177.5110418995</v>
+        <v>154173.0974640312</v>
       </c>
       <c r="D6" t="n">
-        <v>147735.9634764957</v>
+        <v>147731.5596325554</v>
       </c>
       <c r="E6" t="n">
-        <v>-680688.6814543119</v>
+        <v>-680829.9583542484</v>
       </c>
       <c r="F6" t="n">
-        <v>470884.1494214077</v>
+        <v>470742.8725214719</v>
       </c>
       <c r="G6" t="n">
-        <v>442303.3132654877</v>
+        <v>442292.9090961712</v>
       </c>
       <c r="H6" t="n">
-        <v>479883.4225603617</v>
+        <v>479873.0183910452</v>
       </c>
       <c r="I6" t="n">
-        <v>479176.2371845784</v>
+        <v>479167.9338864638</v>
       </c>
       <c r="J6" t="n">
-        <v>470900.3627475048</v>
+        <v>470761.1867187693</v>
       </c>
       <c r="K6" t="n">
-        <v>470900.3627475038</v>
+        <v>470761.1867187704</v>
       </c>
       <c r="L6" t="n">
-        <v>402879.8184198277</v>
+        <v>402879.8184198281</v>
       </c>
       <c r="M6" t="n">
-        <v>273426.7698045126</v>
+        <v>273426.7698045127</v>
       </c>
       <c r="N6" t="n">
-        <v>480540.6807586001</v>
+        <v>480540.6807585999</v>
       </c>
       <c r="O6" t="n">
-        <v>480540.6807586001</v>
+        <v>480540.6807585999</v>
       </c>
       <c r="P6" t="n">
         <v>480540.6807585999</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309571</v>
+        <v>12.16740883095658</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183893</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696291</v>
+        <v>96.93063867696308</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511419794</v>
+        <v>0.7540815511418941</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309571</v>
+        <v>12.16740883095658</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762341</v>
+        <v>1077.609291762342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916097002</v>
+        <v>2.720351916096433</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861961</v>
+        <v>828.6811034861962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298814</v>
+        <v>208.5901246298815</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050121</v>
+        <v>176.8943724050123</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682736</v>
+        <v>213.8677805682738</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505249</v>
+        <v>228.0473863505252</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905339</v>
+        <v>221.7573265905342</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710442</v>
+        <v>220.6851794710445</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355885</v>
+        <v>221.8567179355889</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385754</v>
+        <v>224.1990717385757</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728655</v>
+        <v>217.0235058728657</v>
       </c>
       <c r="R8" t="n">
-        <v>212.5129307991468</v>
+        <v>212.5129307991469</v>
       </c>
       <c r="S8" t="n">
         <v>207.905437108917</v>
@@ -27950,31 +27950,31 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525459</v>
+        <v>98.62130302525463</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758398</v>
+        <v>124.3650025758399</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693651</v>
+        <v>133.6153305693653</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951899</v>
+        <v>132.8718554951902</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091467</v>
+        <v>135.502796109147</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374189</v>
+        <v>124.5349651374192</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948885</v>
+        <v>136.3694007948888</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173283</v>
+        <v>128.9768164173285</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537934</v>
+        <v>136.6410168537936</v>
       </c>
       <c r="R9" t="n">
         <v>144.0545809506524</v>
@@ -28029,37 +28029,37 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.790642330327</v>
+        <v>154.7906423303271</v>
       </c>
       <c r="J10" t="n">
         <v>125.4441765463084</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4640862875906</v>
+        <v>126.4640862875907</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202305</v>
+        <v>131.6226139202307</v>
       </c>
       <c r="M10" t="n">
-        <v>135.486396562815</v>
+        <v>135.4863965628151</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250446</v>
+        <v>124.3279380250448</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599785</v>
+        <v>135.3552454599786</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296877</v>
+        <v>135.0743121296879</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959713</v>
+        <v>149.6677228959714</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332692</v>
+        <v>176.3068339332693</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545305</v>
+        <v>223.6342222545306</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="J19" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.95027323718512</v>
+        <v>61.9118620037523</v>
       </c>
       <c r="L19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.91186200375485</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="R19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="J22" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="N22" t="n">
-        <v>61.91186200375415</v>
+        <v>61.91186200375216</v>
       </c>
       <c r="O22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="R22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718519</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.77149445565493</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>10.77149445565533</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>61.9118620037537</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="N25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="P25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.91186200375361</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="R25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.9502732371851</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>10.77149445565527</v>
+        <v>5.373287609988608</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="29">
@@ -29509,40 +29509,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>10.77149445565539</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>10.77149445565453</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>10.77149445565533</v>
+        <v>10.77149445565487</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.930638676963</v>
       </c>
       <c r="J34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="K34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="M34" t="n">
-        <v>92.95671708493472</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696291</v>
+        <v>92.37849881780875</v>
       </c>
       <c r="O34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>96.930638676963</v>
       </c>
       <c r="R34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696291</v>
+        <v>96.930638676963</v>
       </c>
     </row>
     <row r="35">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30162,10 +30162,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>97.68472022810489</v>
@@ -30174,10 +30174,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="M37" t="n">
+        <v>76.32843350416087</v>
+      </c>
+      <c r="N37" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>97.68472022810489</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.66073332242766</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R37" t="n">
         <v>97.68472022810489</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810489</v>
+        <v>77.66073332242689</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>86.41330088048505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416019</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>77.66073332242772</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>76.32843350416087</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>76.32843350416024</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560639</v>
+        <v>0.04891420635560429</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393542</v>
+        <v>0.5009426158393325</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524517</v>
+        <v>1.885764940524436</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674152</v>
+        <v>4.151532121673974</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706972</v>
+        <v>6.222070476706704</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619462363</v>
+        <v>7.719028619462031</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738878</v>
+        <v>8.588906636738509</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125546746</v>
+        <v>8.727884125546369</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098184</v>
+        <v>8.241493486097829</v>
       </c>
       <c r="P8" t="n">
-        <v>7.03392401669415</v>
+        <v>7.033924016693847</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583994</v>
+        <v>5.282184001583767</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985363</v>
+        <v>3.072607014985231</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328382</v>
+        <v>1.114632477328334</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216671</v>
+        <v>0.2141219383216579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448511</v>
+        <v>0.003913136508448343</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413414</v>
+        <v>0.02617140767413301</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317692</v>
+        <v>0.2527607004317584</v>
       </c>
       <c r="I9" t="n">
-        <v>0.901076974745408</v>
+        <v>0.9010769747453693</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826858</v>
+        <v>2.472624090826752</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993846</v>
+        <v>4.226108404993663</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284684257</v>
+        <v>5.682524284684013</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871619</v>
+        <v>6.631237812871333</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945914388</v>
+        <v>6.806746945914095</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555942</v>
+        <v>6.226843649555674</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001984</v>
+        <v>4.997590997001769</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228071</v>
+        <v>3.340757232227927</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311592</v>
+        <v>1.624923013311522</v>
       </c>
       <c r="S9" t="n">
-        <v>0.486122418859465</v>
+        <v>0.486122418859444</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268828</v>
+        <v>0.1054891388268782</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456194</v>
+        <v>0.00172180313645612</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943083</v>
+        <v>0.02194122903942989</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323943</v>
+        <v>0.1950774727323859</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969312475</v>
+        <v>0.6598325969312191</v>
       </c>
       <c r="J10" t="n">
-        <v>1.55124489308776</v>
+        <v>1.551244893087693</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944782</v>
+        <v>2.549171882944672</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007745</v>
+        <v>3.262062361007604</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384790053</v>
+        <v>3.439387384789905</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188541</v>
+        <v>3.357606440188396</v>
       </c>
       <c r="O10" t="n">
-        <v>3.10129299186428</v>
+        <v>3.101292991864146</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459888</v>
+        <v>2.653691919459774</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474522</v>
+        <v>1.837278733474443</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439002261</v>
+        <v>0.9865574439001837</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417172</v>
+        <v>0.3823757824417008</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771393172</v>
+        <v>0.09374888771392768</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241683</v>
+        <v>0.001196794311241632</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34390,7 +34390,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8924485275279</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>193.2541664368521</v>
+        <v>161.2157552034193</v>
       </c>
       <c r="L19" t="n">
-        <v>251.2329438658287</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N19" t="n">
-        <v>266.9895025602633</v>
+        <v>266.9895025602635</v>
       </c>
       <c r="O19" t="n">
-        <v>233.2617370939423</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682543</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.96314216389696</v>
+        <v>107.0015533973274</v>
       </c>
       <c r="R19" t="n">
-        <v>5.018120567137743</v>
+        <v>5.018120567137856</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.892448527528</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L22" t="n">
-        <v>251.2329438658288</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0739917212233</v>
+        <v>263.0739917212234</v>
       </c>
       <c r="N22" t="n">
-        <v>234.9510913268324</v>
+        <v>234.9510913268305</v>
       </c>
       <c r="O22" t="n">
-        <v>233.2617370939424</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P22" t="n">
-        <v>193.9007810682544</v>
+        <v>193.9007810682545</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.0015533973273</v>
+        <v>107.0015533973274</v>
       </c>
       <c r="R22" t="n">
-        <v>5.018120567137771</v>
+        <v>5.018120567137856</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243675</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36373,7 +36373,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>409.5334806750272</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597712</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>73.85403729409659</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368522</v>
+        <v>193.2541664368521</v>
       </c>
       <c r="L25" t="n">
-        <v>251.2329438658288</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
         <v>263.0739917212233</v>
@@ -36534,10 +36534,10 @@
         <v>193.9007810682544</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.96314216389581</v>
+        <v>107.0015533973273</v>
       </c>
       <c r="R25" t="n">
-        <v>5.018120567137785</v>
+        <v>5.018120567137771</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.398206845666579</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687126</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>70.38469299788005</v>
+        <v>64.98648615221339</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120773</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9627810110559</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>549.6926102858814</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629129</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>409.5334806750272</v>
+        <v>409.5334806750267</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5782182671249032</v>
       </c>
       <c r="J34" t="n">
-        <v>108.8728139673058</v>
+        <v>108.8728139673059</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2345318766299</v>
+        <v>196.2345318766301</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056066</v>
+        <v>254.2133093056067</v>
       </c>
       <c r="M34" t="n">
-        <v>262.0804355689729</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000412</v>
+        <v>265.417728140887</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2421025337202</v>
+        <v>236.2421025337203</v>
       </c>
       <c r="P34" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>109.9819188371052</v>
       </c>
       <c r="R34" t="n">
-        <v>7.998486006915584</v>
+        <v>7.99848600691567</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
@@ -37470,10 +37470,10 @@
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519881991</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848622</v>
@@ -37482,7 +37482,7 @@
         <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.71201348256986</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
         <v>8.752567558057564</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882205</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>89.60290861276978</v>
       </c>
       <c r="K40" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
@@ -37713,16 +37713,16 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>186.3638087115544</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37932,13 +37932,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J43" t="n">
         <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038272</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
@@ -37947,19 +37947,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>216.972197179185</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184478</v>
@@ -38178,25 +38178,25 @@
         <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>233.6111041328046</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609176</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
